--- a/output/fit_clients/fit_round_278.xlsx
+++ b/output/fit_clients/fit_round_278.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2312739675.247392</v>
+        <v>1667483108.671369</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07255326231514975</v>
+        <v>0.09352387816284947</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03507042794409407</v>
+        <v>0.03831085696272149</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1156369875.296922</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2079369403.109951</v>
+        <v>2069856805.559388</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1134372238541702</v>
+        <v>0.1766923882960457</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03940909751685812</v>
+        <v>0.04235073717444519</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1039684753.907154</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4086459028.337476</v>
+        <v>4428933024.383913</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1307972378798052</v>
+        <v>0.1224901655634866</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03353913735378438</v>
+        <v>0.03715771746781701</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>101</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2043229534.471565</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3509501943.902153</v>
+        <v>2607391629.507243</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07108107130418129</v>
+        <v>0.07825460653190279</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04300218003703434</v>
+        <v>0.04039377482311751</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>106</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1754751008.067587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1769323061.514645</v>
+        <v>2529722141.554689</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1003801113550358</v>
+        <v>0.1434964852533524</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05155608586060774</v>
+        <v>0.05017829197277009</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>51</v>
-      </c>
-      <c r="J6" t="n">
-        <v>884661585.3130442</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2791657735.416089</v>
+        <v>2760071759.38565</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09510595348376664</v>
+        <v>0.08515791642633634</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0480317598495808</v>
+        <v>0.03828698359013116</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>86</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1395828852.626599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3657053137.12535</v>
+        <v>3820598611.981149</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1594102843526575</v>
+        <v>0.2068047695821154</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02983857930047342</v>
+        <v>0.02851861772593528</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>89</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1828526693.243341</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2023180566.829495</v>
+        <v>2142393544.825556</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1980961250770491</v>
+        <v>0.1214260874009011</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02819205390078355</v>
+        <v>0.0270328043448882</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1011590306.811879</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5114914546.962965</v>
+        <v>3647528517.910623</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1618897799116433</v>
+        <v>0.1470946063589529</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03572691565699015</v>
+        <v>0.04048312989224345</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>117</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2557457381.668895</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2952208823.199334</v>
+        <v>2623932534.789989</v>
       </c>
       <c r="F11" t="n">
-        <v>0.120974026256002</v>
+        <v>0.1439057347048092</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04252537164374624</v>
+        <v>0.04629764465337681</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>115</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1476104351.180375</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3168895378.246478</v>
+        <v>2618428980.047864</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1932648566160083</v>
+        <v>0.1735026852489273</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04070255488017056</v>
+        <v>0.03365216869557019</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>95</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1584447722.608778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3341809607.900515</v>
+        <v>4671690801.009584</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09914480789436748</v>
+        <v>0.09116844700520285</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03054221178902879</v>
+        <v>0.02147978021905272</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>93</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1670904892.311338</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2717369593.593845</v>
+        <v>3852432712.177366</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1497012386942793</v>
+        <v>0.1821646444827031</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02866170614793651</v>
+        <v>0.03590986970642853</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>91</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1358684851.692423</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1665331886.504556</v>
+        <v>1347961980.345544</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0751778436355198</v>
+        <v>0.1023026059060113</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04564169454772126</v>
+        <v>0.04448829422880868</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>832666066.2347337</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2365276552.14173</v>
+        <v>2448370055.291761</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07289345036132737</v>
+        <v>0.1102615587669404</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04712679251945451</v>
+        <v>0.03507751527968714</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>53</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1182638318.916035</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3558049641.823992</v>
+        <v>3996722580.417281</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1372135918799341</v>
+        <v>0.1105545560579247</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04115280088154166</v>
+        <v>0.03734057594511832</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>81</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1779024877.374848</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3907588321.835916</v>
+        <v>3729002883.450656</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1774780814362654</v>
+        <v>0.1215265766867645</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02349011788935534</v>
+        <v>0.03334965878530199</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>91</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1953794125.42587</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>853296769.2625023</v>
+        <v>1089364393.591836</v>
       </c>
       <c r="F19" t="n">
-        <v>0.150797885717296</v>
+        <v>0.1247067805999626</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02275576362135728</v>
+        <v>0.022909246801931</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>426648378.1439321</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2022410595.303648</v>
+        <v>2382485327.414969</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1247007156222795</v>
+        <v>0.1266379833004739</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03000791661423923</v>
+        <v>0.02166965755536906</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>42</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1011205321.618943</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2465349158.168102</v>
+        <v>2217056654.235119</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07026213604876276</v>
+        <v>0.08294337807425017</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03908696353471067</v>
+        <v>0.03886082364416905</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>22</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1232674570.494553</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2639785179.366642</v>
+        <v>4017865555.930494</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1113745791383078</v>
+        <v>0.1360328393369813</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05047158102807535</v>
+        <v>0.03484933967301449</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>78</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1319892672.785249</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1250152052.528099</v>
+        <v>1168034651.228816</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1189891289875252</v>
+        <v>0.1213965728238679</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03501540122914171</v>
+        <v>0.03711159490549674</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>625076054.295567</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3091875705.577176</v>
+        <v>2536792291.781165</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1154485262533849</v>
+        <v>0.1280518074052954</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03535684377419845</v>
+        <v>0.02947934182882037</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>81</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1545937881.844244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1264932749.436796</v>
+        <v>1324953483.40367</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0980141397094514</v>
+        <v>0.09278843152888094</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03015164097614949</v>
+        <v>0.02172140077482968</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>632466377.7376857</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1097819179.602983</v>
+        <v>1204498981.277471</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09676959643194891</v>
+        <v>0.1197609728670973</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02683613133520725</v>
+        <v>0.03581907450375345</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>548909585.7949134</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3687063867.690023</v>
+        <v>3415153101.181786</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1553338028867189</v>
+        <v>0.1022712258127834</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02400997359837713</v>
+        <v>0.02393573175099714</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1843531959.538002</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2380452630.963301</v>
+        <v>3717085787.852509</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1155325382245217</v>
+        <v>0.1254192300954659</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04972267083828082</v>
+        <v>0.04456033471340517</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>91</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1190226272.915297</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4310593489.067796</v>
+        <v>5419862554.90528</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09189942096594833</v>
+        <v>0.1303663783696584</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04505142167356296</v>
+        <v>0.03715823987233161</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>123</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2155296739.830993</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2036764174.136765</v>
+        <v>2000354133.756057</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1377825862190466</v>
+        <v>0.1294885490864111</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04024996414674328</v>
+        <v>0.03301023224571827</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1018382128.744991</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1117830200.43115</v>
+        <v>1181001009.41747</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09119891181583097</v>
+        <v>0.09220426487366008</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04164859820780966</v>
+        <v>0.04568742704555656</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>558915071.022681</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1393110843.818462</v>
+        <v>1755084451.1892</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1140591734066902</v>
+        <v>0.1179669509450924</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03113332387033756</v>
+        <v>0.03058773906438819</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>696555468.1269118</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2018000917.973096</v>
+        <v>2326694213.724081</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2029706688436821</v>
+        <v>0.1795816490842644</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05514723113566045</v>
+        <v>0.04886385412373872</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>85</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1009000538.229301</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1467593643.674897</v>
+        <v>1523278335.810093</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09780736151394377</v>
+        <v>0.07886605806496905</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0229829879004138</v>
+        <v>0.01943920152048728</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>733796782.9871464</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1059385688.836865</v>
+        <v>1202220313.283401</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08159430494180081</v>
+        <v>0.08666836040232323</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04195169967888004</v>
+        <v>0.04050202527973541</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>529692849.9885645</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2610351235.115824</v>
+        <v>2475283020.354502</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1393167148407489</v>
+        <v>0.1450757225514436</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01952489004704172</v>
+        <v>0.02401269416091316</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>70</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1305175630.691289</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2738551860.906209</v>
+        <v>2562154911.377081</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1077294346790472</v>
+        <v>0.0800639337182921</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02918481662852367</v>
+        <v>0.03950318390058474</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>73</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1369276059.36046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2020293911.379383</v>
+        <v>1483184319.931156</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08764360114903653</v>
+        <v>0.09727848902067088</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03667559518524875</v>
+        <v>0.03136289186080731</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1010146931.445447</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2098278899.245048</v>
+        <v>2152186839.571895</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1426805849753189</v>
+        <v>0.1571492167855996</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03177047671768796</v>
+        <v>0.02678886639885355</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1049139429.223056</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1233865856.939365</v>
+        <v>1168724781.428653</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1098412475715843</v>
+        <v>0.1089849186189095</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05999849941802859</v>
+        <v>0.03831787107896026</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>616932961.2900832</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2086477119.089486</v>
+        <v>2028560143.372545</v>
       </c>
       <c r="F41" t="n">
-        <v>0.11946256808448</v>
+        <v>0.127508514406671</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0368602176210409</v>
+        <v>0.03031623907641555</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>68</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1043238625.268353</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4241772101.935389</v>
+        <v>4274767045.248821</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08393615546293302</v>
+        <v>0.1087256082592148</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04122206569294305</v>
+        <v>0.0414044219190373</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>92</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2120886096.868101</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3076417259.219885</v>
+        <v>2496548921.81751</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2012425883652126</v>
+        <v>0.1235466096831881</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01932882619142451</v>
+        <v>0.0219483343812895</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>101</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1538208620.318324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2270983978.819867</v>
+        <v>2015744664.313232</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08581721970698564</v>
+        <v>0.080921068342806</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02462212529482538</v>
+        <v>0.02548848677429545</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1135492149.800035</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2239481404.890538</v>
+        <v>2449924391.191973</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1276969148246223</v>
+        <v>0.1725881430714095</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04744616719643129</v>
+        <v>0.04132858424612473</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1119740717.424672</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4724664838.38895</v>
+        <v>5031312126.652784</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1782379987672494</v>
+        <v>0.172600241828337</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05424293936705737</v>
+        <v>0.04662027287923851</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>99</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2362332430.205253</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3726096589.009301</v>
+        <v>4759898121.754542</v>
       </c>
       <c r="F47" t="n">
-        <v>0.130017912724757</v>
+        <v>0.1533134280296767</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05187688774254413</v>
+        <v>0.04691083862899965</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>75</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1863048278.123207</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4024551712.741342</v>
+        <v>3247848699.934691</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1053745171087289</v>
+        <v>0.07965813183692143</v>
       </c>
       <c r="G48" t="n">
-        <v>0.029229715123744</v>
+        <v>0.02582614804186362</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>91</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2012275889.289468</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1653802807.792717</v>
+        <v>1639846753.909607</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1379148276856132</v>
+        <v>0.1316848268139476</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03212602561061609</v>
+        <v>0.03771091602483011</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>826901411.9962451</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2750776572.651771</v>
+        <v>3760697890.718923</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1175053104896508</v>
+        <v>0.1343031652374053</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03234886566286022</v>
+        <v>0.04964248280638728</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>95</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1375388363.885937</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1506651635.744613</v>
+        <v>1367818799.844582</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1805194724297225</v>
+        <v>0.1434243797775069</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0443614629766569</v>
+        <v>0.04957564851533648</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>753325819.7286152</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4293410644.475107</v>
+        <v>4713531326.910663</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1217477218738398</v>
+        <v>0.1258129609608439</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0384582309226857</v>
+        <v>0.03826426107165107</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>115</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2146705361.445735</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2391855793.547127</v>
+        <v>3536091845.739141</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1716918346621574</v>
+        <v>0.2029260980621844</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0312220424652136</v>
+        <v>0.02706115428597102</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>81</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1195927971.216747</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3718329063.98825</v>
+        <v>3433503874.966892</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1363394162306338</v>
+        <v>0.140596075903359</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03592819888311562</v>
+        <v>0.03973761648449372</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>91</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1859164573.958276</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3019040601.6151</v>
+        <v>3979864252.570613</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2080165332963799</v>
+        <v>0.1924504047426575</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02344119915725467</v>
+        <v>0.03122573440933993</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1509520232.401354</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1510814248.811584</v>
+        <v>1869788818.74539</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1033817358514114</v>
+        <v>0.1290732230374961</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04107061490532293</v>
+        <v>0.05707195031299291</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>755407165.0287746</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3841032274.393429</v>
+        <v>3611014519.289258</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1159072899461744</v>
+        <v>0.1383525852497337</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01752135633448813</v>
+        <v>0.0176214987047468</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>88</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1920516212.215736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1436218698.973512</v>
+        <v>1155884415.883652</v>
       </c>
       <c r="F58" t="n">
-        <v>0.165429800496187</v>
+        <v>0.1580370583037308</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02828969651755218</v>
+        <v>0.02629066637562127</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>718109386.4345824</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3559813364.248487</v>
+        <v>3742197040.714091</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1009345221282698</v>
+        <v>0.1032514386521415</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03246774352495412</v>
+        <v>0.03122844932333251</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>78</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1779906679.287623</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2815352374.85784</v>
+        <v>3505647541.993371</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1837949721234207</v>
+        <v>0.1911738496113545</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03034948041322249</v>
+        <v>0.03332527615930417</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>87</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1407676238.409645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3141837229.546841</v>
+        <v>3352494631.65281</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1531110337209286</v>
+        <v>0.1426451487025497</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03190861270419779</v>
+        <v>0.02500528644266637</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>95</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1570918581.861521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1691996602.719153</v>
+        <v>1872403754.63816</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1631980530243542</v>
+        <v>0.1839629693244293</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04892236401550698</v>
+        <v>0.030642407280073</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>845998313.2382618</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5021637570.903821</v>
+        <v>5197094447.004664</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08651215513109141</v>
+        <v>0.0853085975622481</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0359735515300887</v>
+        <v>0.0446587138358727</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>80</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2510818802.237636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3857672790.47776</v>
+        <v>3759093655.582678</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1286682981663297</v>
+        <v>0.1227084674052653</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03153068595546871</v>
+        <v>0.02793559136389553</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>87</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1928836421.077012</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4464261436.99218</v>
+        <v>5258487673.799753</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1626319534355085</v>
+        <v>0.1444783950223425</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02657379053396888</v>
+        <v>0.0308690736732081</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>101</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2232130709.359343</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4176481079.178276</v>
+        <v>4294916384.764429</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1229298338765143</v>
+        <v>0.1001445508015831</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04191824287419581</v>
+        <v>0.05030862210017417</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>81</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2088240522.596779</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2431308708.321705</v>
+        <v>2435574099.051291</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09463054919864144</v>
+        <v>0.09833394811236694</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04030199655506144</v>
+        <v>0.03999303725853109</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>88</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1215654420.535913</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4288572711.604295</v>
+        <v>4913252515.410642</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1500268703317256</v>
+        <v>0.1454655934666543</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03387000182631859</v>
+        <v>0.04227232436469712</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>89</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2144286369.071434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1894991993.504819</v>
+        <v>1606242292.40918</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1555913194613596</v>
+        <v>0.1466517089177662</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05365151734831863</v>
+        <v>0.05458003899057886</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>947495988.1278836</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3161670631.66223</v>
+        <v>2495460157.057395</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09932886776534849</v>
+        <v>0.07836139625715252</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04528017710647115</v>
+        <v>0.04568872941240575</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>80</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1580835303.350264</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4793170697.311299</v>
+        <v>4259546370.339704</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1526596036621412</v>
+        <v>0.185346000953871</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02202100649561754</v>
+        <v>0.02915447148995006</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>101</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2396585438.919363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1761811474.318293</v>
+        <v>2254901229.235006</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1075718738592874</v>
+        <v>0.07871221126728899</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04866241979038033</v>
+        <v>0.05051795822090361</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>880905721.9149832</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2642523347.7342</v>
+        <v>3490298412.910162</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07703326300658195</v>
+        <v>0.1062197265636331</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04291594705079205</v>
+        <v>0.03511112572305651</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>105</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1321261702.566121</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3719078149.101343</v>
+        <v>3917138331.41842</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1665816466295477</v>
+        <v>0.129515712514459</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02680665606173248</v>
+        <v>0.03380635687411579</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>95</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1859539077.795011</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2202508785.202671</v>
+        <v>1597871353.370658</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1038447850186261</v>
+        <v>0.1319845390939977</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03080651814021233</v>
+        <v>0.03069758854394829</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1101254337.768353</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5012992604.056786</v>
+        <v>3666159010.880758</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07734846538674275</v>
+        <v>0.1179034781645674</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02851635726302266</v>
+        <v>0.03386735281252869</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2506496329.242543</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1944852476.35075</v>
+        <v>2228790765.389007</v>
       </c>
       <c r="F77" t="n">
-        <v>0.113133465590493</v>
+        <v>0.1644276356362893</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0245925498991761</v>
+        <v>0.02257585299087032</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>972426291.5299618</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3612967140.956281</v>
+        <v>3427132979.215408</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1323425284598195</v>
+        <v>0.1120295073568195</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05098750960441432</v>
+        <v>0.03814744804049909</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>97</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1806483563.899972</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1826293125.980762</v>
+        <v>1832068901.849749</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1219006439288089</v>
+        <v>0.1312356423309279</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0351620434827567</v>
+        <v>0.03594604476107639</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>913146654.2834841</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4552537385.383087</v>
+        <v>5148825415.716842</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1084245214803383</v>
+        <v>0.0750800971082998</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03582115050841816</v>
+        <v>0.02506736986822118</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>58</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2276268719.629303</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4518534849.888807</v>
+        <v>4032360623.740882</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1256587827792887</v>
+        <v>0.09940688038042539</v>
       </c>
       <c r="G81" t="n">
-        <v>0.024521092193006</v>
+        <v>0.0260092222177938</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>65</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2259267407.403133</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4139515932.798826</v>
+        <v>3737299199.846734</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1933574737762836</v>
+        <v>0.1513375302867908</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0261114095731098</v>
+        <v>0.02942748774694397</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>99</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2069757998.377499</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1632947735.692406</v>
+        <v>1988783006.007697</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1113771735454294</v>
+        <v>0.1015134046161038</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03244791381270886</v>
+        <v>0.04461475297703577</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>816473807.4327445</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1923419314.9669</v>
+        <v>1884508561.498534</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09348204014388366</v>
+        <v>0.09126288744401799</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04843444354534038</v>
+        <v>0.04842359787549126</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>961709673.6903919</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3188717556.800246</v>
+        <v>3316118624.77975</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1485418079279475</v>
+        <v>0.1622358611794059</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04742645817510642</v>
+        <v>0.04180356419368909</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>105</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1594358859.374301</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2092805975.942116</v>
+        <v>2284378767.299628</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1554793204613347</v>
+        <v>0.1549189005733292</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02321537167448193</v>
+        <v>0.01703993380800116</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>35</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1046403028.481275</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1482015288.304557</v>
+        <v>1053900370.1376</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1860702676094544</v>
+        <v>0.1646100988132346</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04205323826624209</v>
+        <v>0.02862346928599741</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>741007772.0151629</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2886415382.595912</v>
+        <v>3353616561.14785</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1686995606180426</v>
+        <v>0.144651558487021</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02855001948965242</v>
+        <v>0.03841217610863749</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>110</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1443207710.51069</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3482946128.186726</v>
+        <v>2349849964.130662</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1469166666690458</v>
+        <v>0.1430162802065019</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02843097029260305</v>
+        <v>0.03663052107748179</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>95</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1741473066.789371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1349203986.725686</v>
+        <v>1413787626.181628</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1116635026654802</v>
+        <v>0.09792520509988724</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05443762815942495</v>
+        <v>0.04478274052343267</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>674601944.4711142</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1691727740.871925</v>
+        <v>1488489492.038365</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1237092945624654</v>
+        <v>0.1237734373999916</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04729180971472763</v>
+        <v>0.05314144075687108</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>845863883.812308</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2883884342.29448</v>
+        <v>2827031021.9901</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1002081877432476</v>
+        <v>0.09677529282070629</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04423739267487473</v>
+        <v>0.03753225570195338</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>70</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1441942184.13465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3369257650.615099</v>
+        <v>5025854180.580398</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1033797249356481</v>
+        <v>0.1143587429196573</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04957323893783339</v>
+        <v>0.05283495929203263</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>83</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1684628866.689452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2508255005.55122</v>
+        <v>2488476423.449834</v>
       </c>
       <c r="F94" t="n">
-        <v>0.146186688867631</v>
+        <v>0.1373972775524006</v>
       </c>
       <c r="G94" t="n">
-        <v>0.040350046099439</v>
+        <v>0.03138359690358501</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1254127567.256358</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2298973177.616918</v>
+        <v>2535745277.703208</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09844350902797529</v>
+        <v>0.0930636375457948</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03626775172979833</v>
+        <v>0.04074900113290993</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>69</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1149486639.502867</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1815189595.50468</v>
+        <v>1630404933.895933</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1060651348888479</v>
+        <v>0.1155288954069725</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03852328483163847</v>
+        <v>0.03797968830500748</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>907594804.4535055</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3536312267.902598</v>
+        <v>5067645215.114394</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1649477631495961</v>
+        <v>0.1279670348693681</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01968213532298364</v>
+        <v>0.0200523143747965</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>90</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1768156153.049055</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3234990609.571348</v>
+        <v>3108718994.557673</v>
       </c>
       <c r="F98" t="n">
-        <v>0.10925699958881</v>
+        <v>0.1087959584133128</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02066719868568631</v>
+        <v>0.02772524546717575</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>74</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1617495305.406698</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3433110536.42764</v>
+        <v>2775187324.912373</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1082425224580903</v>
+        <v>0.09673127678901645</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0343320651943388</v>
+        <v>0.03180491284518996</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>87</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1716555285.515364</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4491820017.502342</v>
+        <v>3268761045.470362</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1393716694704534</v>
+        <v>0.1747968086131857</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02803697358915621</v>
+        <v>0.02720677585783998</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>85</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2245910118.674984</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3364152642.044148</v>
+        <v>3553296641.883883</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1917754021405295</v>
+        <v>0.1742712293114057</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03807740330674337</v>
+        <v>0.05730429582122484</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>110</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1682076458.241227</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_278.xlsx
+++ b/output/fit_clients/fit_round_278.xlsx
@@ -486,16 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1667483108.671369</v>
+        <v>2397506602.074569</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09352387816284947</v>
+        <v>0.09457212695272736</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03831085696272149</v>
+        <v>0.0347517682594582</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2069856805.559388</v>
+        <v>2238749554.207735</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1766923882960457</v>
+        <v>0.1781625870696635</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04235073717444519</v>
+        <v>0.03918296742281647</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4428933024.383913</v>
+        <v>4986357864.106148</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1224901655634866</v>
+        <v>0.1379452608185677</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03715771746781701</v>
+        <v>0.03538760875092472</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2607391629.507243</v>
+        <v>3079987905.144887</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07825460653190279</v>
+        <v>0.0698949670991052</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04039377482311751</v>
+        <v>0.03104576910967732</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2529722141.554689</v>
+        <v>2638648025.509211</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1434964852533524</v>
+        <v>0.09516490175210113</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05017829197277009</v>
+        <v>0.03425838620526016</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2760071759.38565</v>
+        <v>2470425813.216533</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08515791642633634</v>
+        <v>0.07808712252045716</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03828698359013116</v>
+        <v>0.03407764517583472</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3820598611.981149</v>
+        <v>3901553367.221583</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2068047695821154</v>
+        <v>0.1570862425345865</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02851861772593528</v>
+        <v>0.03192189862463609</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2142393544.825556</v>
+        <v>1931409643.317114</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1214260874009011</v>
+        <v>0.1686047065766361</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0270328043448882</v>
+        <v>0.02790809239068429</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3647528517.910623</v>
+        <v>4490438094.193598</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1470946063589529</v>
+        <v>0.1799204432656479</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04048312989224345</v>
+        <v>0.03519003917446316</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2623932534.789989</v>
+        <v>3624962741.123268</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1439057347048092</v>
+        <v>0.1766703417267731</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04629764465337681</v>
+        <v>0.04445964944619508</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2618428980.047864</v>
+        <v>2300113860.829346</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1735026852489273</v>
+        <v>0.1420286287540592</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03365216869557019</v>
+        <v>0.04817965257014412</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4671690801.009584</v>
+        <v>4707835897.647226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09116844700520285</v>
+        <v>0.08320717849986979</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02147978021905272</v>
+        <v>0.01926927031010985</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3852432712.177366</v>
+        <v>2985194395.598469</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1821646444827031</v>
+        <v>0.1146971823820546</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03590986970642853</v>
+        <v>0.03363538110790415</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1347961980.345544</v>
+        <v>1292587266.32007</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1023026059060113</v>
+        <v>0.08092758294771775</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04448829422880868</v>
+        <v>0.03956793440441349</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2448370055.291761</v>
+        <v>1954436577.272806</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1102615587669404</v>
+        <v>0.08133957699521523</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03507751527968714</v>
+        <v>0.04269095821127797</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3996722580.417281</v>
+        <v>4962081628.259831</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1105545560579247</v>
+        <v>0.1440896418610218</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03734057594511832</v>
+        <v>0.03356816171583416</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3729002883.450656</v>
+        <v>2842369210.521421</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1215265766867645</v>
+        <v>0.1367197972200884</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03334965878530199</v>
+        <v>0.02342056258757199</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1089364393.591836</v>
+        <v>1065317530.821028</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1247067805999626</v>
+        <v>0.1352932403874186</v>
       </c>
       <c r="G19" t="n">
-        <v>0.022909246801931</v>
+        <v>0.02502578465069704</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2382485327.414969</v>
+        <v>1974706548.366743</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1266379833004739</v>
+        <v>0.1076128517136343</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02166965755536906</v>
+        <v>0.02828448091364798</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2217056654.235119</v>
+        <v>2504537650.220356</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08294337807425017</v>
+        <v>0.0630792442921569</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03886082364416905</v>
+        <v>0.04277516555633865</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4017865555.930494</v>
+        <v>3717293591.452271</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1360328393369813</v>
+        <v>0.1072700930683971</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03484933967301449</v>
+        <v>0.04805350385313914</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1168034651.228816</v>
+        <v>1238501606.17139</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1213965728238679</v>
+        <v>0.1803063110894449</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03711159490549674</v>
+        <v>0.05400519771141514</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2536792291.781165</v>
+        <v>2872849946.767182</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1280518074052954</v>
+        <v>0.1037130953157968</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02947934182882037</v>
+        <v>0.02951062391867704</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1324953483.40367</v>
+        <v>1141380013.21176</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09278843152888094</v>
+        <v>0.09025585989907532</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02172140077482968</v>
+        <v>0.02405380165105237</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1204498981.277471</v>
+        <v>1060146643.317016</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1197609728670973</v>
+        <v>0.08019028763176604</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03581907450375345</v>
+        <v>0.03855546360556294</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3415153101.181786</v>
+        <v>3651752948.651813</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1022712258127834</v>
+        <v>0.1358982713358425</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02393573175099714</v>
+        <v>0.01853556129441591</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3717085787.852509</v>
+        <v>2740990782.233332</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1254192300954659</v>
+        <v>0.1238713831295516</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04456033471340517</v>
+        <v>0.04648458487718669</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5419862554.90528</v>
+        <v>3787832507.080022</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1303663783696584</v>
+        <v>0.09888224370422312</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03715823987233161</v>
+        <v>0.03552324101569688</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2000354133.756057</v>
+        <v>2091852785.473168</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1294885490864111</v>
+        <v>0.1280424581568443</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03301023224571827</v>
+        <v>0.02907161726973002</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1181001009.41747</v>
+        <v>1418189273.779658</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09220426487366008</v>
+        <v>0.1096624659237884</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04568742704555656</v>
+        <v>0.03512040697700652</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1755084451.1892</v>
+        <v>1362662990.973774</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1179669509450924</v>
+        <v>0.1071488954879163</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03058773906438819</v>
+        <v>0.02830410244196485</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2326694213.724081</v>
+        <v>2579003528.045733</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1795816490842644</v>
+        <v>0.1513531415729951</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04886385412373872</v>
+        <v>0.05339008299866553</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1523278335.810093</v>
+        <v>1421478322.723197</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07886605806496905</v>
+        <v>0.1193355058207119</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01943920152048728</v>
+        <v>0.02189612251369783</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1202220313.283401</v>
+        <v>1359652169.13906</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08666836040232323</v>
+        <v>0.08077245631888497</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04050202527973541</v>
+        <v>0.03167975424672798</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2475283020.354502</v>
+        <v>2121913485.559049</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1450757225514436</v>
+        <v>0.17191749811966</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02401269416091316</v>
+        <v>0.02897251213524773</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2562154911.377081</v>
+        <v>2119779034.911168</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0800639337182921</v>
+        <v>0.0699795168060503</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03950318390058474</v>
+        <v>0.02881479724715567</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1483184319.931156</v>
+        <v>1940815791.005117</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09727848902067088</v>
+        <v>0.1088580933840973</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03136289186080731</v>
+        <v>0.03531989664127288</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2152186839.571895</v>
+        <v>1928263786.972018</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1571492167855996</v>
+        <v>0.1810048606068207</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02678886639885355</v>
+        <v>0.02870145135612446</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1168724781.428653</v>
+        <v>1446853769.260302</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1089849186189095</v>
+        <v>0.1122638561411348</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03831787107896026</v>
+        <v>0.04378353940963534</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2028560143.372545</v>
+        <v>2874625283.019441</v>
       </c>
       <c r="F41" t="n">
-        <v>0.127508514406671</v>
+        <v>0.1119804749724657</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03031623907641555</v>
+        <v>0.02877321000001897</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4274767045.248821</v>
+        <v>4274657710.435524</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1087256082592148</v>
+        <v>0.113651543072206</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0414044219190373</v>
+        <v>0.03604899545474748</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2496548921.81751</v>
+        <v>3045589318.215395</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1235466096831881</v>
+        <v>0.1946346861321916</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0219483343812895</v>
+        <v>0.02306855972969765</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2015744664.313232</v>
+        <v>2273670810.382972</v>
       </c>
       <c r="F44" t="n">
-        <v>0.080921068342806</v>
+        <v>0.08830186579943194</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02548848677429545</v>
+        <v>0.03239548961128608</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2449924391.191973</v>
+        <v>1761903984.09212</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1725881430714095</v>
+        <v>0.1221995670234864</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04132858424612473</v>
+        <v>0.04461125015563644</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5031312126.652784</v>
+        <v>4843159222.699282</v>
       </c>
       <c r="F46" t="n">
-        <v>0.172600241828337</v>
+        <v>0.1145476900243291</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04662027287923851</v>
+        <v>0.06044052589487404</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4759898121.754542</v>
+        <v>4360450819.776395</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1533134280296767</v>
+        <v>0.189468908066925</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04691083862899965</v>
+        <v>0.03780445816015426</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3247848699.934691</v>
+        <v>4462373386.972885</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07965813183692143</v>
+        <v>0.07988544266957662</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02582614804186362</v>
+        <v>0.02761669192338837</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1639846753.909607</v>
+        <v>1734310440.636239</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1316848268139476</v>
+        <v>0.1504777541443247</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03771091602483011</v>
+        <v>0.02917532898829204</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3760697890.718923</v>
+        <v>2642753661.231261</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1343031652374053</v>
+        <v>0.17699234126143</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04964248280638728</v>
+        <v>0.04487503316613622</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1367818799.844582</v>
+        <v>1026864795.659685</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1434243797775069</v>
+        <v>0.1682181131615504</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04957564851533648</v>
+        <v>0.03515697548434559</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4713531326.910663</v>
+        <v>5228651320.673315</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1258129609608439</v>
+        <v>0.1078137189096908</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03826426107165107</v>
+        <v>0.0584234872988762</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3536091845.739141</v>
+        <v>2445173625.627762</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2029260980621844</v>
+        <v>0.1325960799965293</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02706115428597102</v>
+        <v>0.02529451425831557</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3433503874.966892</v>
+        <v>4602380485.488824</v>
       </c>
       <c r="F54" t="n">
-        <v>0.140596075903359</v>
+        <v>0.138305392654672</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03973761648449372</v>
+        <v>0.04939142484850735</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3979864252.570613</v>
+        <v>3928240587.607601</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1924504047426575</v>
+        <v>0.2136289318165247</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03122573440933993</v>
+        <v>0.02368854668076602</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1869788818.74539</v>
+        <v>1575055749.010573</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1290732230374961</v>
+        <v>0.1389151856528041</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05707195031299291</v>
+        <v>0.04805690465543659</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3611014519.289258</v>
+        <v>4172436037.444068</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1383525852497337</v>
+        <v>0.1208138221285942</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0176214987047468</v>
+        <v>0.01666298900436957</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1155884415.883652</v>
+        <v>1312241179.723614</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1580370583037308</v>
+        <v>0.1873005522992598</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02629066637562127</v>
+        <v>0.03210863510984616</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3742197040.714091</v>
+        <v>4115902007.142455</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1032514386521415</v>
+        <v>0.1157007938148192</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03122844932333251</v>
+        <v>0.03863468895723168</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3505647541.993371</v>
+        <v>3321076750.370632</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1911738496113545</v>
+        <v>0.1265532779999974</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03332527615930417</v>
+        <v>0.03250676962741851</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3352494631.65281</v>
+        <v>2691764677.243865</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1426451487025497</v>
+        <v>0.1234271767383039</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02500528644266637</v>
+        <v>0.02631305062778034</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1872403754.63816</v>
+        <v>1336990849.839397</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1839629693244293</v>
+        <v>0.133527660521383</v>
       </c>
       <c r="G62" t="n">
-        <v>0.030642407280073</v>
+        <v>0.03572024709031546</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5197094447.004664</v>
+        <v>5017410904.608349</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0853085975622481</v>
+        <v>0.08040860313246354</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0446587138358727</v>
+        <v>0.03800181105262607</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3759093655.582678</v>
+        <v>5224959147.277014</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1227084674052653</v>
+        <v>0.1499778518993622</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02793559136389553</v>
+        <v>0.03427943159727324</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5258487673.799753</v>
+        <v>4839249212.406016</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1444783950223425</v>
+        <v>0.1421090202227482</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0308690736732081</v>
+        <v>0.02416595678386821</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4294916384.764429</v>
+        <v>5104989695.480125</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1001445508015831</v>
+        <v>0.137135148987988</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05030862210017417</v>
+        <v>0.03377255599200207</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2435574099.051291</v>
+        <v>2488865931.144135</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09833394811236694</v>
+        <v>0.06338060259490766</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03999303725853109</v>
+        <v>0.0513677362548386</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4913252515.410642</v>
+        <v>3930435649.002001</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1454655934666543</v>
+        <v>0.1006087694030393</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04227232436469712</v>
+        <v>0.03956371398907218</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1606242292.40918</v>
+        <v>1606944188.147817</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1466517089177662</v>
+        <v>0.135483034481784</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05458003899057886</v>
+        <v>0.04414259368537691</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2495460157.057395</v>
+        <v>3128649106.792882</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07836139625715252</v>
+        <v>0.06971137598592818</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04568872941240575</v>
+        <v>0.03536042226102885</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4259546370.339704</v>
+        <v>3718607308.753248</v>
       </c>
       <c r="F71" t="n">
-        <v>0.185346000953871</v>
+        <v>0.1277897544136109</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02915447148995006</v>
+        <v>0.03042901115697804</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2254901229.235006</v>
+        <v>2062350190.190058</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07871221126728899</v>
+        <v>0.0806388170115398</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05051795822090361</v>
+        <v>0.03246292670579333</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3490298412.910162</v>
+        <v>3161300577.063685</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1062197265636331</v>
+        <v>0.08350409624622739</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03511112572305651</v>
+        <v>0.03280010711307341</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,16 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3917138331.41842</v>
+        <v>3641847167.414203</v>
       </c>
       <c r="F74" t="n">
-        <v>0.129515712514459</v>
+        <v>0.119049320330119</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03380635687411579</v>
+        <v>0.02494979399635147</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1597871353.370658</v>
+        <v>1630688398.66081</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1319845390939977</v>
+        <v>0.1108914082521643</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03069758854394829</v>
+        <v>0.02830853286403731</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3666159010.880758</v>
+        <v>4043872386.479196</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1179034781645674</v>
+        <v>0.07880093276195101</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03386735281252869</v>
+        <v>0.0233968439607322</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2228790765.389007</v>
+        <v>2310539897.398115</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1644276356362893</v>
+        <v>0.1434565838591165</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02257585299087032</v>
+        <v>0.02605878414002447</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3427132979.215408</v>
+        <v>3243631473.266659</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1120295073568195</v>
+        <v>0.1309167113883059</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03814744804049909</v>
+        <v>0.04195649932821294</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1832068901.849749</v>
+        <v>1654182823.763484</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1312356423309279</v>
+        <v>0.1224395288201268</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03594604476107639</v>
+        <v>0.02583909752573617</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5148825415.716842</v>
+        <v>4149683681.215776</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0750800971082998</v>
+        <v>0.09353672576221866</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02506736986822118</v>
+        <v>0.03429005293897943</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4032360623.740882</v>
+        <v>3616437733.065411</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09940688038042539</v>
+        <v>0.1350855843723663</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0260092222177938</v>
+        <v>0.02198242398195084</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3737299199.846734</v>
+        <v>4188771102.965809</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1513375302867908</v>
+        <v>0.169356252265475</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02942748774694397</v>
+        <v>0.02684151676184552</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1988783006.007697</v>
+        <v>2263901948.7949</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1015134046161038</v>
+        <v>0.11951510979864</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04461475297703577</v>
+        <v>0.04467979707212133</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1884508561.498534</v>
+        <v>2129617743.283039</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09126288744401799</v>
+        <v>0.1180591808830222</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04842359787549126</v>
+        <v>0.03829626793963889</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3316118624.77975</v>
+        <v>2780759878.353412</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1622358611794059</v>
+        <v>0.1217827333554855</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04180356419368909</v>
+        <v>0.04823890636753977</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2284378767.299628</v>
+        <v>2540364393.102831</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1549189005733292</v>
+        <v>0.1053580081604825</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01703993380800116</v>
+        <v>0.02328013692290413</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1053900370.1376</v>
+        <v>965145607.9077702</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1646100988132346</v>
+        <v>0.1800398974241434</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02862346928599741</v>
+        <v>0.03245046875286036</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3353616561.14785</v>
+        <v>2859308413.145956</v>
       </c>
       <c r="F88" t="n">
-        <v>0.144651558487021</v>
+        <v>0.1134784227248147</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03841217610863749</v>
+        <v>0.03484132609368761</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2349849964.130662</v>
+        <v>2747255711.665339</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1430162802065019</v>
+        <v>0.1442863188184347</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03663052107748179</v>
+        <v>0.02573278426597018</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1413787626.181628</v>
+        <v>2036766444.978546</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09792520509988724</v>
+        <v>0.08344065799873837</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04478274052343267</v>
+        <v>0.04451625121154858</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1488489492.038365</v>
+        <v>1787413369.574797</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1237734373999916</v>
+        <v>0.1656371367332827</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05314144075687108</v>
+        <v>0.05215301658703877</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2827031021.9901</v>
+        <v>1873460119.253873</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09677529282070629</v>
+        <v>0.09638305688387225</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03753225570195338</v>
+        <v>0.03563775647792489</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5025854180.580398</v>
+        <v>3945146036.618671</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1143587429196573</v>
+        <v>0.1094508473681263</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05283495929203263</v>
+        <v>0.05383615175367137</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2488476423.449834</v>
+        <v>2305678329.111138</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1373972775524006</v>
+        <v>0.1327706106403755</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03138359690358501</v>
+        <v>0.03529679112069074</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2535745277.703208</v>
+        <v>2130420552.388042</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0930636375457948</v>
+        <v>0.1056438973903792</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04074900113290993</v>
+        <v>0.04783949805641143</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1630404933.895933</v>
+        <v>1815602847.185802</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1155288954069725</v>
+        <v>0.1102981841910989</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03797968830500748</v>
+        <v>0.03725366105867381</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,13 +3146,13 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5067645215.114394</v>
+        <v>4921458942.194256</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1279670348693681</v>
+        <v>0.1116223568512514</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0200523143747965</v>
+        <v>0.02756484679653138</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3108718994.557673</v>
+        <v>2877533872.817081</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1087959584133128</v>
+        <v>0.08224346943806282</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02772524546717575</v>
+        <v>0.03018106760912444</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3202,16 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2775187324.912373</v>
+        <v>2939573844.599455</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09673127678901645</v>
+        <v>0.1218764879643561</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03180491284518996</v>
+        <v>0.03487356147219663</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3268761045.470362</v>
+        <v>2936271521.406777</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1747968086131857</v>
+        <v>0.1309855194444763</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02720677585783998</v>
+        <v>0.01748539736496044</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3553296641.883883</v>
+        <v>2291202959.430207</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1742712293114057</v>
+        <v>0.2101261993063598</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05730429582122484</v>
+        <v>0.05510182387945748</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_278.xlsx
+++ b/output/fit_clients/fit_round_278.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2397506602.074569</v>
+        <v>1986233243.181264</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09457212695272736</v>
+        <v>0.09652769425845846</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0347517682594582</v>
+        <v>0.04115296934770118</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2238749554.207735</v>
+        <v>1773536897.440848</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1781625870696635</v>
+        <v>0.1484888594554496</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03918296742281647</v>
+        <v>0.03285876100571956</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4986357864.106148</v>
+        <v>5033569612.538126</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1379452608185677</v>
+        <v>0.1230235825976351</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03538760875092472</v>
+        <v>0.03477590731875353</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>148</v>
+      </c>
+      <c r="J4" t="n">
+        <v>278</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3079987905.144887</v>
+        <v>3191220275.001786</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0698949670991052</v>
+        <v>0.09035589030606327</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03104576910967732</v>
+        <v>0.04502022664961229</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>112</v>
+      </c>
+      <c r="J5" t="n">
+        <v>276</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2638648025.509211</v>
+        <v>2719491439.547979</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09516490175210113</v>
+        <v>0.1231980549593577</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03425838620526016</v>
+        <v>0.03445767092458611</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +676,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2470425813.216533</v>
+        <v>1965357534.927239</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07808712252045716</v>
+        <v>0.06380149735453643</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03407764517583472</v>
+        <v>0.04771974582592784</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +705,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3901553367.221583</v>
+        <v>3284539058.85157</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1570862425345865</v>
+        <v>0.1930238706273109</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03192189862463609</v>
+        <v>0.02970139270127167</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>73</v>
+      </c>
+      <c r="J8" t="n">
+        <v>277</v>
+      </c>
+      <c r="K8" t="n">
+        <v>87.394254344582</v>
       </c>
     </row>
     <row r="9">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1931409643.317114</v>
+        <v>1736410451.429229</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1686047065766361</v>
+        <v>0.1678482686215927</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02790809239068429</v>
+        <v>0.03425362294774926</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +777,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4490438094.193598</v>
+        <v>5868670488.017725</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1799204432656479</v>
+        <v>0.1367333917823431</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03519003917446316</v>
+        <v>0.03387583737876705</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>249</v>
+      </c>
+      <c r="J10" t="n">
+        <v>278</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -738,16 +818,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3624962741.123268</v>
+        <v>2986795128.429564</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1766703417267731</v>
+        <v>0.1625512129397329</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04445964944619508</v>
+        <v>0.04568645187934135</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>112</v>
+      </c>
+      <c r="J11" t="n">
+        <v>277</v>
+      </c>
+      <c r="K11" t="n">
+        <v>75.20280039647656</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2300113860.829346</v>
+        <v>3160663657.110989</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1420286287540592</v>
+        <v>0.1590289855917385</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04817965257014412</v>
+        <v>0.04548436078770297</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4707835897.647226</v>
+        <v>4967787073.436919</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08320717849986979</v>
+        <v>0.09790532936421437</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01926927031010985</v>
+        <v>0.02987796239614079</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>141</v>
+      </c>
+      <c r="J13" t="n">
+        <v>278</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2985194395.598469</v>
+        <v>3162402608.880908</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1146971823820546</v>
+        <v>0.1872576194601928</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03363538110790415</v>
+        <v>0.03647972617282706</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>57</v>
+      </c>
+      <c r="J14" t="n">
+        <v>276</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1292587266.32007</v>
+        <v>1526910888.159294</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08092758294771775</v>
+        <v>0.107074682738422</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03956793440441349</v>
+        <v>0.04771782425771912</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1954436577.272806</v>
+        <v>2619069761.276021</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08133957699521523</v>
+        <v>0.07627864919056976</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04269095821127797</v>
+        <v>0.04505088043383004</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4962081628.259831</v>
+        <v>3225106492.288787</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1440896418610218</v>
+        <v>0.1618074922635969</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03356816171583416</v>
+        <v>0.0396214089248751</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>133</v>
+      </c>
+      <c r="J17" t="n">
+        <v>277</v>
+      </c>
+      <c r="K17" t="n">
+        <v>71.50738671664989</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2842369210.521421</v>
+        <v>2746819494.015409</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1367197972200884</v>
+        <v>0.132704779610867</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02342056258757199</v>
+        <v>0.02444150685968436</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>71</v>
+      </c>
+      <c r="J18" t="n">
+        <v>275</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1065317530.821028</v>
+        <v>972293293.0811913</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1352932403874186</v>
+        <v>0.1535572048001092</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02502578465069704</v>
+        <v>0.01902948591927443</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1974706548.366743</v>
+        <v>2109115082.082425</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1076128517136343</v>
+        <v>0.1192382937282292</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02828448091364798</v>
+        <v>0.02611171900042437</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2504537650.220356</v>
+        <v>2068741158.598653</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0630792442921569</v>
+        <v>0.1000007469517532</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04277516555633865</v>
+        <v>0.03815867430217906</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3717293591.452271</v>
+        <v>3587986184.479167</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1072700930683971</v>
+        <v>0.1086516215247869</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04805350385313914</v>
+        <v>0.04916357818873891</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>73</v>
+      </c>
+      <c r="J22" t="n">
+        <v>278</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1242,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1238501606.17139</v>
+        <v>1316913237.339889</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1803063110894449</v>
+        <v>0.1661243202091061</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05400519771141514</v>
+        <v>0.05267652222155994</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1277,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2872849946.767182</v>
+        <v>3361586785.688473</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1037130953157968</v>
+        <v>0.1388806506418616</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02951062391867704</v>
+        <v>0.02276710948785285</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>82</v>
+      </c>
+      <c r="J24" t="n">
+        <v>273</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1141380013.21176</v>
+        <v>951065653.2780279</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09025585989907532</v>
+        <v>0.1025216654527861</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02405380165105237</v>
+        <v>0.02640414506556748</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1060146643.317016</v>
+        <v>1332784686.76649</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08019028763176604</v>
+        <v>0.08984457816876407</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03855546360556294</v>
+        <v>0.0311993658120226</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1376,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3651752948.651813</v>
+        <v>3320434130.485302</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1358982713358425</v>
+        <v>0.135928924273335</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01853556129441591</v>
+        <v>0.01645746470819924</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>114</v>
+      </c>
+      <c r="J27" t="n">
+        <v>277</v>
+      </c>
+      <c r="K27" t="n">
+        <v>74.15803546509083</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1413,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2740990782.233332</v>
+        <v>3226652290.466051</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1238713831295516</v>
+        <v>0.116474394301542</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04648458487718669</v>
+        <v>0.03345549300158533</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>57</v>
+      </c>
+      <c r="J28" t="n">
+        <v>277</v>
+      </c>
+      <c r="K28" t="n">
+        <v>84.61668354088116</v>
       </c>
     </row>
     <row r="29">
@@ -1236,23 +1450,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3787832507.080022</v>
+        <v>4268725956.583051</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09888224370422312</v>
+        <v>0.1005925580748989</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03552324101569688</v>
+        <v>0.03888907090352818</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>265</v>
+      </c>
+      <c r="J29" t="n">
+        <v>278</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2091852785.473168</v>
+        <v>2367803334.378164</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1280424581568443</v>
+        <v>0.0878415501062743</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02907161726973002</v>
+        <v>0.0242463116162786</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1418189273.779658</v>
+        <v>1406015626.252602</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1096624659237884</v>
+        <v>0.08389503826141297</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03512040697700652</v>
+        <v>0.03722949581250399</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1362662990.973774</v>
+        <v>1751369115.613666</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1071488954879163</v>
+        <v>0.1080615676417868</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02830410244196485</v>
+        <v>0.03397031110852398</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2579003528.045733</v>
+        <v>3029406232.054574</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1513531415729951</v>
+        <v>0.1987050109902282</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05339008299866553</v>
+        <v>0.05109905626619229</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1631,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1421478322.723197</v>
+        <v>1249011878.650514</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1193355058207119</v>
+        <v>0.1191911264259679</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02189612251369783</v>
+        <v>0.02760066588202845</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1359652169.13906</v>
+        <v>1076029746.857996</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08077245631888497</v>
+        <v>0.07914173747942566</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03167975424672798</v>
+        <v>0.03812128169851418</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2121913485.559049</v>
+        <v>2613831946.68662</v>
       </c>
       <c r="F36" t="n">
-        <v>0.17191749811966</v>
+        <v>0.1781799923771537</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02897251213524773</v>
+        <v>0.02881274287691718</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2119779034.911168</v>
+        <v>2884565096.451581</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0699795168060503</v>
+        <v>0.1023284009092011</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02881479724715567</v>
+        <v>0.04208002036844749</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1771,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1940815791.005117</v>
+        <v>1832710015.289196</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1088580933840973</v>
+        <v>0.07821769238626737</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03531989664127288</v>
+        <v>0.03101618293934173</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1928263786.972018</v>
+        <v>1710256912.97479</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1810048606068207</v>
+        <v>0.1253846501891122</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02870145135612446</v>
+        <v>0.02387084334015609</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1446853769.260302</v>
+        <v>1725021660.070554</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1122638561411348</v>
+        <v>0.1356375661251163</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04378353940963534</v>
+        <v>0.06005232136314845</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2874625283.019441</v>
+        <v>1850186285.839434</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1119804749724657</v>
+        <v>0.1408008777216987</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02877321000001897</v>
+        <v>0.04589480007729842</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4274657710.435524</v>
+        <v>2856664695.81203</v>
       </c>
       <c r="F42" t="n">
-        <v>0.113651543072206</v>
+        <v>0.1066201647771263</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03604899545474748</v>
+        <v>0.04213043818708655</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>117</v>
+      </c>
+      <c r="J42" t="n">
+        <v>277</v>
+      </c>
+      <c r="K42" t="n">
+        <v>67.65806614802909</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1948,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3045589318.215395</v>
+        <v>2557736503.383406</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1946346861321916</v>
+        <v>0.1795128305740868</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02306855972969765</v>
+        <v>0.02480920458743005</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2273670810.382972</v>
+        <v>2063989829.228069</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08830186579943194</v>
+        <v>0.07693738652494563</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03239548961128608</v>
+        <v>0.02287306344379339</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1761903984.09212</v>
+        <v>2055057653.369524</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1221995670234864</v>
+        <v>0.1699353315937356</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04461125015563644</v>
+        <v>0.04040554527063406</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4843159222.699282</v>
+        <v>5117488211.01242</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1145476900243291</v>
+        <v>0.1222138430182748</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06044052589487404</v>
+        <v>0.047545191114152</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>163</v>
+      </c>
+      <c r="J46" t="n">
+        <v>277</v>
+      </c>
+      <c r="K46" t="n">
+        <v>91.37059912651645</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4360450819.776395</v>
+        <v>3132364138.216958</v>
       </c>
       <c r="F47" t="n">
-        <v>0.189468908066925</v>
+        <v>0.1359673626865524</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03780445816015426</v>
+        <v>0.04135101830472428</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>125</v>
+      </c>
+      <c r="J47" t="n">
+        <v>277</v>
+      </c>
+      <c r="K47" t="n">
+        <v>60.67542271987502</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4462373386.972885</v>
+        <v>4397407036.059232</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07988544266957662</v>
+        <v>0.08943614831043441</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02761669192338837</v>
+        <v>0.02792467224737596</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>138</v>
+      </c>
+      <c r="J48" t="n">
+        <v>278</v>
+      </c>
+      <c r="K48" t="n">
+        <v>98.38473189327726</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1734310440.636239</v>
+        <v>1454798868.026185</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1504777541443247</v>
+        <v>0.1911966560674906</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02917532898829204</v>
+        <v>0.0348205673117066</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2642753661.231261</v>
+        <v>2698390324.865926</v>
       </c>
       <c r="F50" t="n">
-        <v>0.17699234126143</v>
+        <v>0.1119443664388632</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04487503316613622</v>
+        <v>0.03403067194400618</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>89</v>
+      </c>
+      <c r="J50" t="n">
+        <v>273</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2234,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1026864795.659685</v>
+        <v>1069418677.430673</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1682181131615504</v>
+        <v>0.1691079295689452</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03515697548434559</v>
+        <v>0.04321613481457803</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2263,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5228651320.673315</v>
+        <v>3297873929.977237</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1078137189096908</v>
+        <v>0.1263583375757519</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0584234872988762</v>
+        <v>0.06206694435777589</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>175</v>
+      </c>
+      <c r="J52" t="n">
+        <v>277</v>
+      </c>
+      <c r="K52" t="n">
+        <v>77.96845705272993</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2445173625.627762</v>
+        <v>2908270035.230237</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1325960799965293</v>
+        <v>0.141770333501436</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02529451425831557</v>
+        <v>0.03381935733995637</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>39</v>
+      </c>
+      <c r="J53" t="n">
+        <v>273</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2335,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4602380485.488824</v>
+        <v>4911561197.743992</v>
       </c>
       <c r="F54" t="n">
-        <v>0.138305392654672</v>
+        <v>0.1237178636730238</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04939142484850735</v>
+        <v>0.03315870500096908</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>147</v>
+      </c>
+      <c r="J54" t="n">
+        <v>277</v>
+      </c>
+      <c r="K54" t="n">
+        <v>90.74485364858467</v>
       </c>
     </row>
     <row r="55">
@@ -1970,17 +2378,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3928240587.607601</v>
+        <v>3908141570.992356</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2136289318165247</v>
+        <v>0.1713146434694821</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02368854668076602</v>
+        <v>0.02647278691720874</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>125</v>
+      </c>
+      <c r="J55" t="n">
+        <v>278</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1575055749.010573</v>
+        <v>1600686702.105815</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1389151856528041</v>
+        <v>0.1107976956643671</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04805690465543659</v>
+        <v>0.05059084153962007</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2448,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4172436037.444068</v>
+        <v>4043214397.125546</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1208138221285942</v>
+        <v>0.1248960500779949</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01666298900436957</v>
+        <v>0.02539897591129571</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>111</v>
+      </c>
+      <c r="J57" t="n">
+        <v>278</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1312241179.723614</v>
+        <v>1554402239.415664</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1873005522992598</v>
+        <v>0.1901375658150362</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03210863510984616</v>
+        <v>0.02677585562539146</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2518,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4115902007.142455</v>
+        <v>3492261178.860832</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1157007938148192</v>
+        <v>0.1292389033605344</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03863468895723168</v>
+        <v>0.04736557934541149</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>134</v>
+      </c>
+      <c r="J59" t="n">
+        <v>278</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3321076750.370632</v>
+        <v>3766230986.968683</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1265532779999974</v>
+        <v>0.1630451620114462</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03250676962741851</v>
+        <v>0.02917395577153505</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>43</v>
+      </c>
+      <c r="J60" t="n">
+        <v>278</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2691764677.243865</v>
+        <v>2289567705.068199</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1234271767383039</v>
+        <v>0.1356918199154593</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02631305062778034</v>
+        <v>0.03309060204138173</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>259</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1336990849.839397</v>
+        <v>1887009473.414702</v>
       </c>
       <c r="F62" t="n">
-        <v>0.133527660521383</v>
+        <v>0.12174680386991</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03572024709031546</v>
+        <v>0.04556859886685997</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2658,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5017410904.608349</v>
+        <v>5261009794.808551</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08040860313246354</v>
+        <v>0.08583262565586015</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03800181105262607</v>
+        <v>0.0394026578302878</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>135</v>
+      </c>
+      <c r="J63" t="n">
+        <v>277</v>
+      </c>
+      <c r="K63" t="n">
+        <v>87.69886869059101</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5224959147.277014</v>
+        <v>4050216745.640592</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1499778518993622</v>
+        <v>0.1682122673372587</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03427943159727324</v>
+        <v>0.02959839670791486</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>136</v>
+      </c>
+      <c r="J64" t="n">
+        <v>278</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4839249212.406016</v>
+        <v>5777238601.976294</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1421090202227482</v>
+        <v>0.1212960871259694</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02416595678386821</v>
+        <v>0.02197215707544716</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>223</v>
+      </c>
+      <c r="J65" t="n">
+        <v>278</v>
+      </c>
+      <c r="K65" t="n">
+        <v>92.98118399456976</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5104989695.480125</v>
+        <v>4241406991.327274</v>
       </c>
       <c r="F66" t="n">
-        <v>0.137135148987988</v>
+        <v>0.1502344216815927</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03377255599200207</v>
+        <v>0.03783182961902692</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>137</v>
+      </c>
+      <c r="J66" t="n">
+        <v>278</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2488865931.144135</v>
+        <v>2678608983.695002</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06338060259490766</v>
+        <v>0.07685564856262139</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0513677362548386</v>
+        <v>0.04621497024798773</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2837,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3930435649.002001</v>
+        <v>4471793815.973252</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1006087694030393</v>
+        <v>0.1112435522212028</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03956371398907218</v>
+        <v>0.03551610519218396</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>144</v>
+      </c>
+      <c r="J68" t="n">
+        <v>278</v>
+      </c>
+      <c r="K68" t="n">
+        <v>91.7237179573098</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1606944188.147817</v>
+        <v>2199361102.507376</v>
       </c>
       <c r="F69" t="n">
-        <v>0.135483034481784</v>
+        <v>0.1410592149434831</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04414259368537691</v>
+        <v>0.05499388790874367</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2909,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3128649106.792882</v>
+        <v>2360496040.352109</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06971137598592818</v>
+        <v>0.07621369072680262</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03536042226102885</v>
+        <v>0.03791852414702886</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>40</v>
+      </c>
+      <c r="J70" t="n">
+        <v>270</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2938,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3718607308.753248</v>
+        <v>3445062965.772155</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1277897544136109</v>
+        <v>0.1147160751147356</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03042901115697804</v>
+        <v>0.0261292209483984</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>209</v>
+      </c>
+      <c r="J71" t="n">
+        <v>276</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2979,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2062350190.190058</v>
+        <v>1887522914.535842</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0806388170115398</v>
+        <v>0.07353546741570506</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03246292670579333</v>
+        <v>0.03748325755596821</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3161300577.063685</v>
+        <v>3196825346.833508</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08350409624622739</v>
+        <v>0.1099226802287166</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03280010711307341</v>
+        <v>0.03624859988013681</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>18</v>
+      </c>
+      <c r="J73" t="n">
+        <v>275</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3641847167.414203</v>
+        <v>3453805255.889403</v>
       </c>
       <c r="F74" t="n">
-        <v>0.119049320330119</v>
+        <v>0.1795939516890954</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02494979399635147</v>
+        <v>0.02983656189778701</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>76</v>
+      </c>
+      <c r="J74" t="n">
+        <v>268</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3084,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1630688398.66081</v>
+        <v>1860441361.368911</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1108914082521643</v>
+        <v>0.1519201868343953</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02830853286403731</v>
+        <v>0.03517558947596941</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3119,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4043872386.479196</v>
+        <v>4623685954.212515</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07880093276195101</v>
+        <v>0.08207957269328314</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0233968439607322</v>
+        <v>0.02191730583888693</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>130</v>
+      </c>
+      <c r="J76" t="n">
+        <v>278</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2310539897.398115</v>
+        <v>2210815143.807274</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1434565838591165</v>
+        <v>0.1680268195437037</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02605878414002447</v>
+        <v>0.02616992976003519</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3243631473.266659</v>
+        <v>4100696839.374066</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1309167113883059</v>
+        <v>0.1306849396889429</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04195649932821294</v>
+        <v>0.04452632961587505</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>139</v>
+      </c>
+      <c r="J78" t="n">
+        <v>278</v>
+      </c>
+      <c r="K78" t="n">
+        <v>92.82649249107327</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3226,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1654182823.763484</v>
+        <v>1424756368.508012</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1224395288201268</v>
+        <v>0.1446631093082003</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02583909752573617</v>
+        <v>0.02531487070109858</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3261,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4149683681.215776</v>
+        <v>3517029279.711211</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09353672576221866</v>
+        <v>0.1096030746940491</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03429005293897943</v>
+        <v>0.03141601329137228</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>136</v>
+      </c>
+      <c r="J80" t="n">
+        <v>277</v>
+      </c>
+      <c r="K80" t="n">
+        <v>69.33251298865856</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3616437733.065411</v>
+        <v>4459487153.94538</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1350855843723663</v>
+        <v>0.1214286322063445</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02198242398195084</v>
+        <v>0.02854980907660537</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>127</v>
+      </c>
+      <c r="J81" t="n">
+        <v>278</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4188771102.965809</v>
+        <v>4878233439.134382</v>
       </c>
       <c r="F82" t="n">
-        <v>0.169356252265475</v>
+        <v>0.2010060216229358</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02684151676184552</v>
+        <v>0.02800149395322357</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>207</v>
+      </c>
+      <c r="J82" t="n">
+        <v>277</v>
+      </c>
+      <c r="K82" t="n">
+        <v>89.59850917928324</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2263901948.7949</v>
+        <v>1807740610.253372</v>
       </c>
       <c r="F83" t="n">
-        <v>0.11951510979864</v>
+        <v>0.1511116423868131</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04467979707212133</v>
+        <v>0.02797300436464902</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3405,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2129617743.283039</v>
+        <v>2591115064.148161</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1180591808830222</v>
+        <v>0.1070062176169692</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03829626793963889</v>
+        <v>0.04454838710575904</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2780759878.353412</v>
+        <v>2257325471.960674</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1217827333554855</v>
+        <v>0.1534719035567339</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04823890636753977</v>
+        <v>0.04209155300980868</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>38</v>
+      </c>
+      <c r="J85" t="n">
+        <v>273</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2540364393.102831</v>
+        <v>2378582701.556693</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1053580081604825</v>
+        <v>0.1267966927289313</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02328013692290413</v>
+        <v>0.01953779776785068</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>965145607.9077702</v>
+        <v>1372226429.981368</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1800398974241434</v>
+        <v>0.172962656362521</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03245046875286036</v>
+        <v>0.03351540509174243</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3539,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2859308413.145956</v>
+        <v>3090831949.76501</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1134784227248147</v>
+        <v>0.1362437349688723</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03484132609368761</v>
+        <v>0.03611948707473945</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>39</v>
+      </c>
+      <c r="J88" t="n">
+        <v>277</v>
+      </c>
+      <c r="K88" t="n">
+        <v>78.64708321402757</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2747255711.665339</v>
+        <v>3005736861.504188</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1442863188184347</v>
+        <v>0.1321887277161935</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02573278426597018</v>
+        <v>0.03905642719408764</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>21</v>
+      </c>
+      <c r="J89" t="n">
+        <v>271</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2036766444.978546</v>
+        <v>1990756847.729625</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08344065799873837</v>
+        <v>0.1143983668895986</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04451625121154858</v>
+        <v>0.04075441721094644</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1787413369.574797</v>
+        <v>1404190677.291158</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1656371367332827</v>
+        <v>0.1813660871895791</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05215301658703877</v>
+        <v>0.05437702817164967</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1873460119.253873</v>
+        <v>1840713149.398749</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09638305688387225</v>
+        <v>0.07304844237474829</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03563775647792489</v>
+        <v>0.04592639597678357</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3722,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3945146036.618671</v>
+        <v>4337281927.373629</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1094508473681263</v>
+        <v>0.1323040084174885</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05383615175367137</v>
+        <v>0.04311786832619836</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>121</v>
+      </c>
+      <c r="J93" t="n">
+        <v>277</v>
+      </c>
+      <c r="K93" t="n">
+        <v>91.14332435624408</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2305678329.111138</v>
+        <v>1713298655.755783</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1327706106403755</v>
+        <v>0.1201934337673383</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03529679112069074</v>
+        <v>0.04105404158511643</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2130420552.388042</v>
+        <v>2263475580.409458</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1056438973903792</v>
+        <v>0.1015482852258721</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04783949805641143</v>
+        <v>0.04943415644015469</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1815602847.185802</v>
+        <v>1513013740.505261</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1102981841910989</v>
+        <v>0.1303067472053258</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03725366105867381</v>
+        <v>0.04450827557078352</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3864,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4921458942.194256</v>
+        <v>3552670179.047239</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1116223568512514</v>
+        <v>0.1489054084930918</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02756484679653138</v>
+        <v>0.02605323264209639</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>138</v>
+      </c>
+      <c r="J97" t="n">
+        <v>278</v>
+      </c>
+      <c r="K97" t="n">
+        <v>92.69710937255263</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2877533872.817081</v>
+        <v>3941875612.757082</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08224346943806282</v>
+        <v>0.116034702119064</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03018106760912444</v>
+        <v>0.02445447697143737</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>66</v>
+      </c>
+      <c r="J98" t="n">
+        <v>278</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2939573844.599455</v>
+        <v>2250970588.181199</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1218764879643561</v>
+        <v>0.1284999900576064</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03487356147219663</v>
+        <v>0.0341035663212442</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2936271521.406777</v>
+        <v>4779666729.715505</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1309855194444763</v>
+        <v>0.1613714400036195</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01748539736496044</v>
+        <v>0.02556358244797261</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>117</v>
+      </c>
+      <c r="J100" t="n">
+        <v>278</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2291202959.430207</v>
+        <v>2379278240.022419</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2101261993063598</v>
+        <v>0.2177866927967102</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05510182387945748</v>
+        <v>0.04357267900275624</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>24</v>
+      </c>
+      <c r="J101" t="n">
+        <v>275</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
